--- a/inst/extdata/Comorbidity_weights.xlsx
+++ b/inst/extdata/Comorbidity_weights.xlsx
@@ -140,9 +140,6 @@
     <t>drug</t>
   </si>
   <si>
-    <t>alcool</t>
-  </si>
-  <si>
     <t>canc</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>dane</t>
   </si>
   <si>
-    <t>demantia</t>
-  </si>
-  <si>
     <t>depre</t>
   </si>
   <si>
@@ -228,6 +222,12 @@
   </si>
   <si>
     <t>wloss</t>
+  </si>
+  <si>
+    <t>dementia</t>
+  </si>
+  <si>
+    <t>alcohol</t>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -616,7 +616,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -630,7 +630,7 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -644,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -686,7 +686,7 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -700,7 +700,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -714,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -742,7 +742,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -854,7 +854,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1">
         <v>5</v>
@@ -868,7 +868,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -882,7 +882,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -896,7 +896,7 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -924,7 +924,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -938,7 +938,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -952,7 +952,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -966,7 +966,7 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -980,7 +980,7 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -994,7 +994,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>

--- a/inst/extdata/Comorbidity_weights.xlsx
+++ b/inst/extdata/Comorbidity_weights.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms045\Desktop\Github\INESSS-QC_inesss1\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\INESSS-QC_inesss1\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317134A6-3688-41CA-8123-A8F8CD8FE01C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-28125" yWindow="885" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="CCI_INSPQ_2018_CIM9" sheetId="1" r:id="rId1"/>
+    <sheet name="CCI_INSPQ_2018_CIM10" sheetId="3" r:id="rId2"/>
+    <sheet name="UManitoba_2016" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>Hypertension</t>
   </si>
@@ -122,12 +125,6 @@
     <t>AIDS/HIV</t>
   </si>
   <si>
-    <t>CIM9</t>
-  </si>
-  <si>
-    <t>CIM10</t>
-  </si>
-  <si>
     <t>DIAGN_CODE</t>
   </si>
   <si>
@@ -228,12 +225,90 @@
   </si>
   <si>
     <t>alcohol</t>
+  </si>
+  <si>
+    <t>Myocardial Infarction</t>
+  </si>
+  <si>
+    <t>Congestive Heart Failure</t>
+  </si>
+  <si>
+    <t>Peripheral Vascular Disease</t>
+  </si>
+  <si>
+    <t>Cerebrovascular Disease</t>
+  </si>
+  <si>
+    <t>Chronic Pulmonary Disease</t>
+  </si>
+  <si>
+    <t>cpd</t>
+  </si>
+  <si>
+    <t>Connective Tissue Disease - Rheumatic Disease</t>
+  </si>
+  <si>
+    <t>ctdrd</t>
+  </si>
+  <si>
+    <t>Peptic Ulcer Disease</t>
+  </si>
+  <si>
+    <t>pud</t>
+  </si>
+  <si>
+    <t>Mild Liver Disease</t>
+  </si>
+  <si>
+    <t>Diabetes without Chronic Complications</t>
+  </si>
+  <si>
+    <t>Diabetes with Chronic Complications</t>
+  </si>
+  <si>
+    <t>Paraplegia and Hemiplegia</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>Renal Disease</t>
+  </si>
+  <si>
+    <t>rd</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>Moderate or Severe Liver Disease</t>
+  </si>
+  <si>
+    <t>ld1</t>
+  </si>
+  <si>
+    <t>ld2</t>
+  </si>
+  <si>
+    <t>Metastatic Carcinoma</t>
+  </si>
+  <si>
+    <t>mc</t>
+  </si>
+  <si>
+    <t>HIV/AIDS</t>
+  </si>
+  <si>
+    <t>POIDS</t>
+  </si>
+  <si>
+    <t>cvd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -556,485 +631,1026 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1">
         <v>6</v>
       </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
       </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1">
         <v>5</v>
       </c>
-      <c r="D21" s="1">
-        <v>5</v>
-      </c>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
       </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
+      <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
       </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
       </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
+      <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
       </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
+      <c r="D33" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D33">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250EA353-5224-47AE-9863-7E4F60D03447}">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0703C3A3-1F1A-4B7D-B1DE-D3C78DAA3646}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
+    <sortCondition ref="A2:A18"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/inst/extdata/Comorbidity_weights.xlsx
+++ b/inst/extdata/Comorbidity_weights.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\INESSS-QC_inesss1\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317134A6-3688-41CA-8123-A8F8CD8FE01C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE68788-FFB8-4A0A-9A84-13E784E30124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28125" yWindow="885" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CCI_INSPQ_2018_CIM9" sheetId="1" r:id="rId1"/>
     <sheet name="CCI_INSPQ_2018_CIM10" sheetId="3" r:id="rId2"/>
     <sheet name="UManitoba_2016" sheetId="2" r:id="rId3"/>
+    <sheet name="CCI_INSPQ_Manitoba" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>Hypertension</t>
   </si>
@@ -635,7 +636,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,7 +1056,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A32" sqref="A32:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0703C3A3-1F1A-4B7D-B1DE-D3C78DAA3646}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,32 +1462,254 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>70</v>
       </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
+    <sortCondition ref="B2:B18"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8D7742-BCF3-415C-BAB7-1B1965986418}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1505,10 +1728,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1549,76 +1772,76 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1626,10 +1849,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1637,18 +1860,18 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
+        <v>62</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
-    <sortCondition ref="A2:A18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
+    <sortCondition ref="B2:B17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
